--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_4.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_4.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A114"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,806 +440,5130 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>在输入验证框时，用户遇到了一个软件崩溃的问题。当在验证框中输入了过多的字符后，程序似乎不能正常处理，导致系统卡死或崩溃。这可能会对用户体验造成负面影响，并可能需要开发者的注意来修复这个问题。</t>
+          <t>群里添加群成员不需要对方验证</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>群里 添加 群 成员 验证</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>在编辑界面中，当用户尝试输入超过允许的最大字符数时，系统并未提供任何提示或警告。只有在用户点击“发布”按钮后，才会收到超出字数限制的提示。</t>
+          <t>任务添二创建群，被加添加成员一次最多 20 个人，群组成员上限 500 个人，但是在添加人时，当勾选了某个用户，则该用户头像出现在底部勾选栏
+，确定（确认）：未选择人员，确定按钮置灰，勾选人员后，则变更为确认并且为可点击
+状态，括号中显示已勾选人数，人数超过上限无提示，括号只显示人数，到用户创建群才提示。添加完好友后，不正常闪退</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>任务 添二 创建 群 被加 添加 成员 一次   20   个人 群 组成员 上限   500   个人 添加 人时 当勾选 头像 出现 底部 勾选栏 
+ 确定 确认 未 选择 人员 确定 按钮 置 灰 勾选 人员 变更 确认 点击 
+ 状态 括号 勾选 人数 人数 超过 上限 提示 括号 人数 创建 群才 提示 添加 完 好友 正常 闪退</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>该图像显示了手机验证码输入界面，其中存在两个潜在的软件缺陷。首先，在用户尝试输入错误的验证码时，系统并未提供任何错误提示或安全警告，这可能导致用户的敏感信息被滥用的风险。其次，密码输入部分的设计存在严重问题，用户只输入一次密码即可完成注册，如果密码输入错误，用户将无法得知自己的错误并重新输入正确的密码。此外，系统未对两次输入的密码进行比对，可能存在安全隐患。这些问题都表明该应用在用户安全和操作便利性方面存在缺陷，需要开发者进行修复。</t>
+          <t>任务添二创建群，被加添加成员一次最多 20 个人，群组成员上限 500 个人，但是在添加人时，当勾选了某个用户，则该用户头像出现在底部勾选栏
+，确定（确认）：未选择人员，确定按钮置灰，勾选人员后，则变更为确认并且为可点击
+状态，括号中显示已勾选人数，人数超过上限无提示，括号只显示人数，到用户创建群才提示。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>任务 添二 创建 群 被加 添加 成员 一次   20   个人 群 组成员 上限   500   个人 添加 人时 当勾选 头像 出现 底部 勾选栏 
+ 确定 确认 未 选择 人员 确定 按钮 置 灰 勾选 人员 变更 确认 点击 
+ 状态 括号 勾选 人数 人数 超过 上限 提示 括号 人数 创建 群才 提示</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>此软件界面在用户尝试输入超过1000字符的评论内容后，未实施任何长度限制或提示，导致用户可以无限制地输入大量文本。这违反了预期的用户交互和界面设计原则，可能导致性能问题并影响用户体验。</t>
+          <t>在朋友面板中，当尝试通过群聊设置添加20人以上的成员时，系统并未提供相应的选项。尽管界面上显示了勾选框和人数限制，实际上用户无法执行此操作。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>朋友 面板 群聊 设置 添加 20 成员 系统 并未 提供 相应 选项 界面 勾选框 人数 限制 实际上 无法 执行</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>该软件在创建群组时存在一个字符限制问题。当尝试输入的群名称长度达到或超过64个字符时，用户将无法继续输入，尽管系统并没有明确提示群名称的长度限制。然而，令人困惑的是，即使超过了这个限制，群组仍然可以成功创建，没有给出任何关于字符超限的错误信息。这可能会给用户造成混淆，让他们误以为可以输入更长的群名称，而实际上这是不被允许的。</t>
+          <t>该软件界面显示了一个系统提示，告知用户他们的数据使用已超过某个限制。然而，这个提示并没有明确说明具体的数据上限是多少，导致用户无法准确知道他们是否真的超过了限制。此外，由于没有明确的上限信息，用户可能需要不断地尝试或猜测来找出确切的数值。这种不清晰的指示可能会导致用户的困惑和不便。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>界面显示 系统 提示 告知 数据 超过 限制 提示 没有 明确 说明 具体 数据 上限 无法 准确 知道 是否 真的 超过 限制 没有 明确 上限 信息 不断 猜测 找出 确切 数值 清晰 指示 困惑 不便</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>该软件在输入框中存在一个bug。当用户在输入框内输入错误的文字并希望删除时，他们发现无法执行删除操作，这可能导致用户无法有效地编辑或纠正他们的输入。</t>
+          <t>在测试过程中，发现一个与预期不符的行为。根据需求，当尝试一次添加超过20个好友到群聊时，系统应该显示错误提示。但在实际操作中，系统并未在添加第21个好友时给出错误提示，而是在提交群信息时才提示请求失败。此行为与需求描述不符，可能是由于软件的bug或设计缺陷导致的。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>过程 发现 预期 不符 行为 需求 一次 添加 超过 20 好友 群聊 系统 应该 错误 提示 实际操作 系统 并未 添加 21 好友 给出 错误 提示 提交 群 信息 时才 提示 请求 失败 行为 需求 不符 软件 设计 缺陷</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>该软件界面显示了一个系统提示，告知用户他们的数据使用已超过某个限制。然而，这个提示并没有明确说明具体的数据上限是多少，导致用户无法准确知道他们是否真的超过了限制。此外，由于没有明确的上限信息，用户可能需要不断地尝试或猜测来找出确切的数值。这种不清晰的指示可能会导致用户的困惑和不便。</t>
+          <t>该软件在用户试图一次性添加超过20个群组成员时出现了一个bug。即使用户已经选择了30多个成员，软件仍然允许他们继续选择其他成员，同时“确定”按钮被设置为不可点击状态。这意味着用户无法完成他们的操作，这可能会导致用户感到困惑和沮丧。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>试图 一次性 添加 超过 20 个群 组成员 出现 选择 30 多个 成员 软件 仍然 允许 继续 选择 成员 确定 按钮 设置 不可 点击 状态 意味着 无法 完成 感到 困惑 沮丧</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>该软件在创建群聊时存在一个bug。尽管群名称的规则明确指出不允许为空且最多不得超过64个字符，但当用户尝试输入超过64个字符时，系统并没有给出任何提示信息。相反，用户可以成功地创建了群聊。这违反了软件的设计规则和预期行为。</t>
+          <t>该软件在创建群组的过程中存在一个用户界面的bug。当用户试图将超过20名成员添加到新群组时，软件允许他们继续进行此操作，即使已经超出了最大成员限制。然而，直到用户进入最后一步并尝试完成创建过程时，系统才显示一个错误消息，提示“请求的数据超出系统限制”。这个错误消息要求用户返回到添加成员的步骤并重新开始创建过程。这导致了不必要的用户交互和潜在的数据超载问题。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>创建 群组 过程 用户界面 试图 超过 20 名 成员 添加 新 群组 软件 允许 继续 进行 超出 最大 成员 限制 进入 最后 一步 完成 创建 过程 系统 错误 消息 提示 请求 数据 超出 系统 限制 错误 消息 要求 返回 添加 成员 重新 创建 过程 不必要 交互 潜在 数据 超载</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>该软件在群名称编辑功能中，当用户输入的文本超出限制长度时，系统正确地显示了红色警告。然而，在群简介部分，当文本超出其设定的长度限制时，系统并没有给出任何提示，这可能会导致用户无法得知他们的输入已超出限制，从而可能影响他们正常使用或编辑群简介的功能。</t>
+          <t>这个bug的问题在于，根据系统当前的成员上限（2人），用户尝试添加198名成员时，系统提示“请求超过系统限制”，导致添加失败。这与需求中要求的群成员上限500人不符，实际上系统无法满足用户的添加请求。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>系统 当前 成员 上限 添加 198 名 成员 系统 提示 请求 超过 系统 限制 添加 失败 需求 要求 群 成员 上限 500 不符 实际上 系统 无法 满足用户 添加 请求</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>该软件中群组搜索框的功能存在缺陷。用户可以输入超过群组名称长度的字符串，并且没有给出任何关于输入限制或已达到最大字符数的提示。这可能会导致用户误解其功能，并可能引发后续的问题或错误。</t>
+          <t>添加群聊时，正常一次只能添加20个人，但选择添加人数却可以超过20个人。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>添加 群聊 正常 一次 只能 添加 20 个人 选择 添加 人数 超过 20 个人</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>根据提供的图片和问题描述，软件在搜索框和加入群的入口处允许用户输入超过64个字符。这可能不是一个bug，而是软件设计时故意允许的功能。然而，如果这个功能不是预期的或者与原始需求不符，那么它可能会引起用户的混淆或不便。</t>
+          <t>在创建群选择群成员的过程中，选择的群成员超过了20人之后，没有相关的提示信息。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>创建 群 选择 群 成员 过程 选择 群 成员 超过 20 之后 没有 相关 提示信息</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>搜索时输入的字符“******”导致系统不断加载，无法检索出任何相关数据。</t>
+          <t>在创建群聊的功能中，系统允许一次性添加超过20人，这与系统设定的上限不符。用户在尝试添加人数时，并未收到任何关于人数限制的提示，这导致在实际创建群聊时才出现人数超标的问题。由于没有及时的提示信息，用户可能会在不知情的情况下多次尝试添加人员，直到达到系统的限制。这种情况严重影响了用户的使用体验，可能会导致用户对系统的满意度下降。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>创建 群聊 系统 允许 一次性 添加 超过 20 系统 设定 上限 不符 添加 人数 并未 收到 人数 限制 提示 创建 群聊 时才 出现 人数 超标 没有 及时 提示信息 不知情 情况 多次 添加 人员 达到 系统 限制 情况严重 对系统 满意度 下降</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>在个人设置中，当用户选择个性签名并尝试输入15个英文字母后，紧接着输入两次空格。令人意外的是，当最后一个英文字符被输入时，它会自动变为一个点号“.”。此现象仅在红米NOTE 5G设备上发生。</t>
+          <t>（1）发起群聊，选择好友
+（2）期望结果：不能一次添加20人
+（3）实际结果：可以选择超过20人，在最后确定时才出现弹窗“您的请求超过限制”
+在用户选择好友时，超过20人就应该不能再选择，使设置明确,避免了用户再要返回前面的页面重新选择.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>发起 群聊 选择 好友 
+ 期望 不能 一次 添加 20 
+ 选择 超过 20 最后 确定 时才 出现 弹窗 请求 超过 限制 
+ 选择 好友 超过 20 应该 不能 选择 设置 明确 , 避免 再要 返回 前面 页面 重新 选择 .</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>在意见反馈的文本框中，当用户尝试通过输入空格来换行时，系统并未正确响应。尽管空格被正常计算为字符长度，但文本并没有像预期的那样换到下一行，而是继续在同一行显示。这可能导致用户在填写反馈时遇到困难，因为他们无法使用简单的空格来创建新的段落。</t>
+          <t>在登录并发起群聊后，当用户添加了20个人到群聊中。在尝试继续添加其他成员时，发现有些成员已经被自动选中并添加到群聊中，但并未默认勾选。与此同时，有些成员则被正确勾选。这导致了群聊添加成员的界面出现了不一致和不准确的反应，可能影响了用户的正常使用体验。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>登录 发起 群聊 添加 20 个人 群聊 继续 添加 成员 发现 成员 自动 选中 添加 群聊 并未 默认 勾选 成员 正确 勾选 群聊 添加 成员 界面 出现 一致 准确 反应 正常</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>该软件在用户尝试将群名称延长至其最大允许字符数时，没有提供任何提示或警告。这可能导致群名称超出限制，从而引发一系列问题，如功能错误、数据丢失或其他未预期的后果。</t>
+          <t>该软件在用户界面的设计上存在明显的缺陷。在选择联系人功能中，系统规定一次最多只能添加20个人，但界面上并没有明确地提示这一限制条件。用户在实际操作过程中，可以勾选超过20人，并且点击确定按钮后，系统会弹出一个消息提示“您请求的数据超过系统限制”。这个提示虽然指出了错误，但是并没有明确告诉用户一次添加用户人数的上限是多少，导致用户难以理解具体的错误原因。这种设计不利于用户正确、有效地使用软件，可能会给用户带来不必要的困扰和误解。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>用户界面 设计 明显 缺陷 选择 联系人 系统 规定 一次 只能 添加 20 个人 界面 没有 明确 提示 这一 限制 实际操作 过程 勾选 超过 20 点击 确定 按钮 系统 会弹 出 消息 提示 请求 数据 超过 系统 限制 提示 指出 错误 没有 明确 告诉 一次 添加 人数 上限 难以 理解 具体 错误 原因 设计 不利于 正确 有效 软件 带来 不必要 困扰 误解</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>这个搜索功能存在一个明显的bug。当用户尝试在搜索群时输入超过64个字符，系统并没有限制或拒绝这种输入。尽管群名的有效字符数被限制为64个，但用户仍然能够输入更多的字符，这可能会导致系统处理超出其能力范围的请求，从而导致性能下降或其他未预期的问题。</t>
+          <t>该软件在用户尝试添加群组成员时，没有提供明确的提示信息告知用户已达到最大邀请用户数量限制。特别是在用户选择超过20位成员后，按钮应自动变为不可用状态，但目前软件中并未实现这一功能。这可能导致用户在不知情的情况下继续操作，直到他们意识到无法添加更多成员为止，给用户带来了不便和困扰。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>添加 群 组成员 没有 提供 明确 提示信息 告知 达到 最大 邀请 用户数量 限制 特别 选择 超过 20 位 成员 按钮 应 自动 变为 不可 状态 目前 软件 并未 实现 这一 不知情 情况 继续 意识 无法 添加 更 成员 带来 不便 困扰</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>在创建群聊的功能中，系统允许一次性添加超过20人，这与系统设定的上限不符。用户在尝试添加人数时，并未收到任何关于人数限制的提示，这导致在实际创建群聊时才出现人数超标的问题。由于没有及时的提示信息，用户可能会在不知情的情况下多次尝试添加人员，直到达到系统的限制。这种情况严重影响了用户的使用体验，可能会导致用户对系统的满意度下降。</t>
+          <t>该软件在用户创建群组并选择成员时存在严重的功能缺陷。首先，系统没有限制在选择群组成员时一次可以添加的人数，导致用户可以一次选择超过20个成员，这与软件的功能需求说明不符。其次，当用户选择的成员数量达到499人时，系统才提示用户最多只能选择30个成员，这进一步加剧了上述问题。这些缺陷可能导致用户体验不佳，甚至可能影响群组的正常运作。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>创建 群组 选择 成员 严重 缺陷 系统 没有 限制 选择 群 组成员 一次 添加 人数 一次 选择 超过 20 成员 软件 需求 说明 不符 选择 成员 数量 达到 499 人时 系统 提示 只能 选择 30 成员 进一步 加剧 上述 缺陷 不佳 群组 正常 运作</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>该软件在用户输入信息时没有提供到达字符限制前的提示，这导致用户在不知不觉中超出了预设的字数限制。当用户试图编辑或删除多余的字符以符合限制时，可能会遇到困难，因为没有明确的警告告诉他们已经接近最大字符数。这种设计缺陷可能会导致用户误解其输入的长度，从而影响信息的完整性和准确性。</t>
+          <t>问题描述：在创建群组的过程中，当用户完成选择成员和填写群信息后，如果用户选择返回并稍后继续操作添加更多成员，发现之前输入的群信息已被重置，导致用户需要重新输入。此现象可能导致用户体验下降，因为他们必须重复之前的操作来更新他们的群信息。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>创建 群组 过程 完成 选择 成员 填写 群 信息 选择 返回 稍后 继续 添加 更 成员 发现 之前 输入 群 信息 重置 重新 输入 现象 下降 必须 重复 之前 更新 群 信息</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>该软件在用户界面的设计上存在明显的缺陷。在选择联系人功能中，系统规定一次最多只能添加20个人，但界面上并没有明确地提示这一限制条件。用户在实际操作过程中，可以勾选超过20人，并且点击确定按钮后，系统会弹出一个消息提示“您请求的数据超过系统限制”。这个提示虽然指出了错误，但是并没有明确告诉用户一次添加用户人数的上限是多少，导致用户难以理解具体的错误原因。这种设计不利于用户正确、有效地使用软件，可能会给用户带来不必要的困扰和误解。</t>
+          <t>该软件在选择成员时存在一个不合理的界面反馈问题。当用户试图添加超过20个成员，并且选择的人数达到或超过这个限制时，系统并没有立即给出提示，而是等到用户尝试完成创建操作时才显示“一次最多选择20人”的提示信息。这种设计导致用户在不知情的情况下可能会因为超出限制而无法成功创建团队或群组，从而产生不必要的挫败感和困扰。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>选择 成员 不合理 界面 反馈 试图 添加 超过 20 成员 选择 人数 达到 超过 限制 系统 没有 立即 给出 提示 完成 创建 时才 一次 选择 20 提示信息 设计 不知情 情况 超出 限制 无法 成功 创建 团队 群组 产生 不必要 挫败 感 困扰</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>该软件在填写群名称时存在一个bug，用户无法通过粘贴的方式输入汉字。</t>
+          <t>该软件在添加成员的功能上存在缺陷。当试图向一个群组中添加超过20个成员时，尽管系统显示了“添加成员”的选项并且可以继续点击，但实际上并没有成功添加更多的成员。这违反了软件的设计原则和预期功能，可能导致用户无法正确管理他们的群组或联系人列表。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>添加 成员 缺陷 试图 群组 添加 超过 20 成员 系统 添加 成员 选项 继续 点击 实际上 没有 成功 添加 更 成员 违反 软件 设计 原则 预期 无法 正确 管理 群组 联系人 列表</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>该输入框没有长度限制，导致用户可以输入任意长度的文本，这可能会导致性能问题或超出预期的功能。</t>
+          <t>在群组设置的添加成员功能中，当尝试添加的成员数量超过20人时，软件并未提供任何关于已超过上限或无法继续添加的提示。用户只有在点击确定按钮后才能收到相关的提示信息。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>群组 设置 添加 成员 添加 成员 数量 超过 20 人时 软件 并未 提供 超过 上限 无法 继续 添加 提示 点击 确定 按钮 收到 相关 提示信息</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>该问题描述的bug是：在尝试输入群简介信息时，输入的字符数超过了允许的最大长度255个字符。当用户试图输入超过这个限制的内容时，系统没有提供任何错误提示或警告，导致用户无法正常提交他们的输入，这可能会影响群组的介绍信息的完整性和准确性。</t>
+          <t>该软件在执行“新建群-添加成员”的操作时，当尝试一次添加21个成员时出现了问题。尽管系统显示了成功创建群组的消息，但在查看群组成员列表时，可以明显看出系统的响应延迟和性能下降。用户界面似乎没有正确地更新以反映新添加的成员，而且系统处理大量数据的能力似乎受到了限制，这导致用户体验下降。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>执行 新建 群 - 添加 成员 一次 添加 21 成员 出现 系统 成功 创建 群组 消息 查看 群 组成员 列表 明显 看出 系统 响应 延迟 性能 下降 用户界面 没有 正确 更新 反映 新 添加 成员 系统 处理 大量 数据 能力 限制 下降</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>该软件在用户尝试更改群名称时，存在一个字符长度限制的问题。当输入的字符数超过64个时，软件无法正确处理，导致用户无法完成群名称的更改。</t>
+          <t>该软件在设计上存在一个明显的功能错误，即添加成员的功能限制不明确。根据问题描述，软件原本的设计是一次最多只能添加20个成员。然而，在实际使用中，用户发现可以添加超过这个数量的成员。这种不一致可能导致软件在处理大量数据时出现问题，影响其性能和稳定性。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>设计 明显 错误 添加 成员 限制 明确 软件 原本 设计 一次 只能 添加 20 成员 发现 添加 超过 数量 成员 一致 软件 处理 大量 数据 出现 性能 稳定性</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>该搜索框功能异常，用户输入字符时未显示预期的字符长度限制。</t>
+          <t>发起群聊，添加成员，当添加成员超过20人时，没有直接提醒添加人员已经达到上限。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>发起 群聊 添加 成员 添加 成员 超过 20 人时 没有 提醒 添加 人员 达到 上限</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>在搜索栏中输入的群名称包含多个字符和符号，导致系统无法正确识别和检索。</t>
+          <t>在软件界面中，用户试图一次性添加超过20个好友到新建的群聊时，系统并未给出任何提示或限制，导致用户可以无限制地继续添加好友。当用户选择并确认添加后，系统才显示创建失败的信息，表明添加的数量已超过允许的最大值。这种设计违反了预期的用户交互逻辑，可能会导致用户困惑和操作不便。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>软件 界面 试图 一次性 添加 超过 20 好友 新建 群聊 系统 并未 给出 提示 限制 限制 继续 添加 好友 选择 确认 添加 系统 创建 失败 信息 表明 添加 数量 超过 允许 最大值 设计 违反 预期 交互 逻辑 困惑 不便</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>在软件界面的聊天功能中，当用户选择“设置”快捷短语作为输入内容时，系统错误地将其识别为普通文本。这导致用户的输入意图与显示结果不符，给用户带来了混淆和不便。</t>
+          <t>新建群，添加成员时可以勾选第21位成员，</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新建 群 添加 成员 勾选 21 位 成员</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>在进行主要步骤的第二步时，当输入字符数超过255个（如图显示），搜索框并未对输入字符数设置任何限制，导致用户可以无限制地输入字符，这违反了软件应有的功能限制。</t>
+          <t>该软件在新建群组并选择超过20个联系人后，点击确定按钮时并未出现预期的数量限制提示信息。相反，用户直接进入到了群信息填写页面，这与预期的操作流程和数量限制提示不符。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>新建 群组 选择 超过 20 联系人 点击 确定 按钮 并未 出现 预期 数量 限制 提示信息 相反 进入 群 信息 填写 页面 预期 数量 限制 提示 不符</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>在进行主要步骤的第二步时，当输入字符数超过255个（如图所示）后，发现搜索框并未对输入的字符数进行限制。</t>
+          <t>这个bug的描述如下：在尝试通过搜索并选择群聊成员来创建群聊的过程中，系统未能按预期阻止用户选择超过20个成员。尽管系统提示了“已选中成员大于20时不能再选中”的信息，但用户仍然可以继续添加更多的成员，这违反了系统的预期行为。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>搜索 选择 群聊 成员 创建 群聊 过程 系统 未能 预期 阻止 选择 超过 20 成员 系统 提示 选中 成员 大于 20 不能 选中 信息 仍然 继续 添加 更 成员 违反 系统 预期 行为</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>该应用在新建群组时，未对用户输入的群名称进行适当的验证和提示。首先，应用没有明确规定群名称的长度限制，这可能导致用户创建过长或过短的群名称，影响其他用户的使用体验。其次，应用没有明确说明群名称的命名规则，使得用户可能创建不符合平台或社区规定的名称，从而违反了应用的使用协议。最后，当用户输入的群名称不合法时，应用并未给出明确的提示或警告，这可能会导致用户误认为可以随意输入任何内容，而忽视了对其他用户的尊重和平台的规范。</t>
+          <t>该软件在尝试创建群组时出现了一个bug。预期中，当用户选择的成员数超过20个时，系统应阻止用户继续添加成员并使确认按钮不可点击，以此提示用户已达到最大成员限制。但在实际测试中，即使选择了超过20个成员，用户仍可继续添加成员并点击确认按钮，导致系统未给出任何提示就进入了创建群组的页面。这可能导致了数据超载和系统性能问题，因为用户可能会无意中创建一个包含大量成员的群组，这可能超出了系统的处理能力。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>创建 群组 出现 预期 选择 成员数 超过 20 系统 应 阻止 继续 添加 成员 确认 按钮 不可 点击 以此 提示 达到 最大 成员 限制 选择 超过 20 成员 继续 添加 成员 点击 确认 按钮 导致系统 未 给出 提示 进入 创建 群组 页面 数据 超载 系统 性能 无意 创建 包含 大量 成员 群组 超出 系统 处理 能力</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>前提条件:已经存在一个群聊
-复现步骤:
-1.对一个已经存在的群聊修改群聊名称
-2.如果输入空格，点击保存 提示输入参数不合法
-预期结果:跟新建群聊原则一致，提示输入不能为空</t>
+          <t>【预置条件】
+用户已登录，该群组已添加较多群成员
+【测试步骤】
+1.登录app，朋友-更多-发起群聊进入添加成员页面
+2.点击搜索图标，输入搜索条件进行搜索，如“3”
+3.选择20人或20人以下未加入群组的人员
+4.点击确认按钮
+【预期结果】
+添加成功，群组新增人员与所选人员一致
+【实际结果】
+添加失败，提示“此用户已经在群组”</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 登录 群组 添加 较多群 成员 
+ 测试步骤 
+ . 登录 app 朋友 - 更 - 发起 群聊 进入 添加 成员 页面 
+ . 点击 搜索 图标 输入 搜索 进行 搜索 
+ . 选择 20 20 以下 未 加入 群组 人员 
+ . 点击 确认 按钮 
+ 预期 
+ 添加 成功 群组 新增 人员 所选 人员 一致 
+ 添加 失败 提示 群组</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>该软件中存在一个bug，即尽管需求规定不允许使用空白作为群名称，但应用程序仅对常见的空白副字符进行了过滤。然而，某些不常用的Unicode字符仍可被用于创建无名称的群聊。</t>
+          <t>添加成员时要求最多只能20个，而当超过20个时不提醒，而且点击确定仍可以进入创建群组页面。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>添加 成员 要求 只能 20 超过 20 提醒 点击 确定 进入 创建 群组 页面</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>该软件在新建群组并选择超过20个联系人后，点击确定按钮时并未出现预期的数量限制提示信息。相反，用户直接进入到了群信息填写页面，这与预期的操作流程和数量限制提示不符。</t>
+          <t>问题描述：
+1. 重现步骤：用户首先使用手机号登录，然后尝试发起群聊并添加65个成员。在输入昵称后点击确定，但系统没有给出任何反应或提示。
+2. 期望结果：当用户添加超过20个成员时，系统应显示一个提示，告知用户已超出限制数量。
+3. 实际结果：尽管用户已添加了65个成员，但系统并未显示任何超出限制的提示。
+根据上述问题描述，这个bug的具体表现是：
+- 用户在尝试添加65个成员到群聊中时，系统并没有按照预期显示“超出20个成员”的提示。
+- 系统在用户点击确定按钮后没有任何反应或反馈，与期望的结果不符。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ .   重现 手机号 登录 发起 群聊 添加 65 成员 输入 昵称 点击 确定 系统 没有 给出 反应 提示 
+ .   期望 添加 超过 20 成员 系统 应 提示 告知 超出 限制 数量 
+ .   添加 65 成员 系统 并未 超出 限制 提示 
+ 根据上述 具体表现 
+ -   添加 65 成员 群聊 系统 没有 预期 超出 20 成员 提示 
+ -   系统 点击 确定 按钮 没有 反应 反馈 期望 不符</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>创建群的时候，群名称最多只能显示64个字符，超过的字符用...表示，显示不出来</t>
+          <t>添加成员一次最多 20 个人，但是却可以选择超过20以上</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>添加 成员 一次   20   个人 选择 超过 20</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>用户注册的过程中部分手机号码段输入错误无法识别</t>
+          <t>在创建群组的过程中，系统反馈了一个不明确的错误消息：“您请求的数据超过系统限制”，这让用户感到困惑。这条信息没有提供足够的细节来明确指示错误发生的具体位置或原因，导致用户无法理解问题出在哪里。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>创建 群组 过程 系统 反馈 明确 错误 消息 请求 数据 超过 系统 限制 感到 困惑 条 信息 没有 提供 足够 细节 明确 指示 错误 发生 具体位置 原因 无法 理解 出</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>新建群组，填写信息，当群名称超过64个字符时，系统不做任何提示，属于功能不完整和用户体验bug</t>
+          <t>在创建群聊功能中，用户在选择欲添加进群聊的用户时，系统设置每次最多可添加20个用户。然而，当用户已经选择了20个用户并继续选择时，系统并未明确提示已超过限制。在用户点击确认并尝试添加超过20个用户时，系统仅弹出提示“选择的用户数量超过了系统的限制”，但未告知具体的限制数值，导致用户无法了解系统的确切限制。这种设计使得用户体验度降低，因为用户无法准确知道一次操作可以添加多少个用户。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>创建 群聊 选择 欲 添加 进 群聊 系统 设置 每次 最多 添加 20 选择 20 继续 选择 系统 并未 明确 提示 超过 限制 点击 确认 添加 超过 20 系统 仅弹 出 提示 选择 用户数量 超过 系统 限制 未 告知 具体 限制 数值 无法 了解 系统 确切 限制 设计 度 降低 无法 准确 知道 一次 添加</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>问题描述：在创建群的时候，如果尝试使用全为空格号的名字进行输入，系统不允许用户保存。然而，当在空格号后面添加其他字符或文字后，系统会接受并保存该名字，此时前面的空格被忽略，导致实际显示的名字与用户期望的不符。</t>
+          <t>新建群邀请好友，添加成员一次最多邀请20人。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>新建 群 邀请 好友 添加 成员 一次 邀请 20</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>该应用程序在处理群组名称输入时存在缺陷。当用户尝试创建一个超过64个字符的群组名称时，系统并未提供任何关于字符限制的警告信息，而是允许创建。然而，当名称被保存或提交后，系统会自动截断超出长度的部分，导致群组名称显示不全，且不提示用户已超出最大字符数限制。这可能会导致用户无法正确看到他们所创建的群组名称，从而影响用户体验。</t>
+          <t>在软件的用户管理界面中，用户尝试添加成员到群组时，系统允许一次选择超过20个用户。然而，当用户点击确认创建群组的按钮后，系统才会显示一个提示信息，告知用户请求的数据超出了系统的默认限制。这个bug可能会导致用户在创建新群组时遇到问题，因为他们可能不会立即意识到系统的限制。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>软件 管理 界面 添加 成员 群组 系统 允许 一次 选择 超过 20 点击 确认 创建 群组 按钮 系统 提示信息 告知 请求 数据 超出 系统 默认 限制 创建 新 群组 遇到 不会 立即 意识 系统 限制</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>在创建群组的过程中，系统反馈了一个不明确的错误消息：“您请求的数据超过系统限制”，这让用户感到困惑。这条信息没有提供足够的细节来明确指示错误发生的具体位置或原因，导致用户无法理解问题出在哪里。</t>
+          <t>建群时，勾选成员超过限制数20个而未提醒。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>建群 勾选 成员 超过 限制 数 20 未 提醒</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>该软件的用户界面在输入时存在一个bug。当用户开始输入或编辑消息时，如果误按空格键，软件并没有提供任何提示或警告，导致用户不知道他们刚刚进行了何种操作。这可能会导致用户混淆，甚至丢失他们原本想要输入的内容。</t>
+          <t>该软件在用户试图创建群组并一次性添加超过20个联系人时出现了系统限制错误。当用户点击“创建群组”后，程序进入选择联系人界面，但当尝试添加的成员数量超过20时，系统显示了一个提示信息，告知“请求的数据超过系统限制”。这可能表明软件在处理大量数据时存在性能瓶颈或资源分配问题。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>试图 创建 群组 一次性 添加 超过 20 联系人 出现 系统 限制 错误 点击 创建 群组 程序 进入 选择 联系人 界面 添加 成员 数量 超过 20 系统 提示信息 告知 请求 数据 超过 系统 限制 表明 软件 处理 大量 数据 性能 瓶颈 资源分配</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>该软件界面显示了一个搜索框，用于输入群名称进行搜索。然而，从问题描述来看，当用户尝试在搜索框中输入内容时，没有明确的字符限制或长度规定，导致用户可以无限期地输入字符。这可能导致软件性能下降，响应时间增加，甚至可能引起软件崩溃。</t>
+          <t>该软件在用户试图创建群组并选择达到500人的群组成员时，出现了系统错误。当尝试添加超过系统限制的联系人数量时，界面会显示一个错误消息，提示“请求的数据超过系统限制”。这可能表明软件在处理大量数据或并发请求时存在性能问题，或者其后端服务和数据库配置不足以支持如此大量的操作。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>试图 创建 群组 选择 达到 500 群 组成员 出现 系统 错误 添加 超过 系统 限制 联系人 数量 界面 错误 消息 提示 请求 数据 超过 系统 限制 表明 软件 处理 大量 数据 并发 请求 性能 其后 端 服务 数据库 配置 不足以 支持 大量</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>该软件在测试“群简介”功能时出现以下问题：
-1. 当群简介的字数超过设定的限制时，系统并未提供任何提示信息，导致用户无法得知他们的输入已经超过了限制。
-2. 当前，只有群主能够编辑群简介，而群成员无法进行编辑操作。然而，当发生这种情况时，系统并没有给用户发送任何消息或提示，这使得群成员无法得知他们没有权限进行编辑。</t>
+          <t>在添加成员的时候，一次只能添加20个人员。当我们在添加成员页面选择添加成员的时候我们能点击21个成员，在最后创建群组的时候才说一次不可以添加超过20个人员，若果修改还要返回，很麻烦，应该在添加成员时不能添加第21个人员。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>添加 成员 一次 只能 添加 20 人员 添加 成员 页面 选择 添加 成员 点击 21 成员 最后 创建 群组 说 一次 添加 超过 20 人员 修改 返回 麻烦 应该 添加 成员 不能 添加 21 人员</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>在创建群聊功能中，用户在选择欲添加进群聊的用户时，系统设置每次最多可添加20个用户。然而，当用户已经选择了20个用户并继续选择时，系统并未明确提示已超过限制。在用户点击确认并尝试添加超过20个用户时，系统仅弹出提示“选择的用户数量超过了系统的限制”，但未告知具体的限制数值，导致用户无法了解系统的确切限制。这种设计使得用户体验度降低，因为用户无法准确知道一次操作可以添加多少个用户。</t>
+          <t>该Bug描述的问题是，在用户尝试将超过20名成员添加到群组时，系统会正确地提醒用户请求的数据超过了设定的限制。然而，这个提示并没有阻止用户继续添加更多的成员到群组中。当用户点击“确定”后，系统会立即弹出一个警告，告知用户请求的数据已超过限制。这导致用户必须返回到之前的界面去修改成员数量，从而给用户带来了不必要的麻烦和不便。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Bug 超过 20 名 成员 添加 群组 系统 正确 提醒 请求 数据 超过 设定 限制 提示 没有 阻止 继续 添加 更 成员 群组 点击 确定 系统 立即 弹 出 警告 告知 请求 数据 超过 限制 必须 返回 之前 界面 修改 成员 数量 带来 不必要 麻烦 不便</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>该软件在用户界面的设计上存在一个明显的bug。当用户尝试编辑群名称并尝试删除部分文字时，系统并没有按单个字符进行删除，而是成行地删除了文本。这意味着用户无法精确地删除他们不想显示的字符，只能删除整行文本。这种设计缺陷可能会导致用户在尝试修改或输入群组名称时遇到困难，从而影响用户体验。</t>
+          <t>创建群组人数超过20人后，系统提示信息不够明确。当前提示为“你请求的数据超过系统限制”，应改为“您所邀请的人数超过20人，已经超过限制”以提供更明确的信息指引。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>创建 群组 人数 超过 20 人后 系统 提示信息 不够 明确 当前 提示 请求 数据 超过 系统 限制 应 改为 邀请 人数 超过 20 超过 限制 提供 更 明确 信息 指引</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>问题描述：
-在用户界面中，当用户尝试加入或查找群组时，系统没有提供任何关于输入超过64位字符的群名的提示。这可能导致用户错误地认为他们可以输入任意长度的群名，而实际上这可能会导致程序崩溃或其他不可预见的问题。</t>
+          <t>该软件在尝试添加超过20个群成员时，系统提示为“您请求的数据超过系统限制”。这个提示不够明确，因为用户可能不清楚是添加的单个用户数量超过了限制，还是总的用户数量。建议软件开发商对提示进行修改，提供更具体的错误信息，以便用户更好地理解问题所在。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>添加 超过 20 个群 成员 系统 提示 请求 数据 超过 系统 限制 提示 不够 明确 清楚 添加 单个 用户数量 超过 限制 总 用户数量 建议 软件 开发商 提示 进行 修改 提供 更 具体 错误信息 更好 理解 问题所在</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>在尝试建立群组的过程中，当群名称输入超过64个字符时，用户界面并未提供任何关于输入长度过长的提示信息。这可能导致用户无法正确理解他们输入的信息是否超出了允许的范围，进而影响他们的操作流程和体验。</t>
+          <t>在尝试添加群成员的过程中，当选择的人数超过20人时，系统并没有立即发出超限的提示。相反，只有在用户开始输入群名称时，系统才显示“超过群限制”的警告。这可能导致用户在人数选择阶段产生误解，误以为可以随意增加群成员数量而不受限制。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>添加 群 成员 过程 选择 人数 超过 20 人时 系统 没有 立即 发出 超限 提示 相反 输入 群 名称 系统 超过 群 限制 警告 人数 选择 阶段 产生误解 误以为 随意 增加 群 成员 数量 受限制</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>创建群时，群名称键入空格键提示群名称为空白无法建群。但空白占用了字符数，超过64字符的空白格也算字符。</t>
+          <t>根据您提供的信息和图片，这个软件界面在尝试创建一个群组时遇到了问题。用户打开朋友窗口，并按照步骤试图创建一个新的群聊。在添加22位好友到新群聊后，用户尝试设置群名称，但系统提示“您请求的数据超过系统限制”。这表示当用户尝试添加超过系统设定的好友数量上限时，系统未能正确显示预期的错误信息，而是提供了一个不清晰的错误提示。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>提供 信息 图片 软件 界面 创建 群组 遇到 打开 朋友 窗口 试图 创建 新 群聊 添加 22 位 好友 新 群聊 设置 群 名称 系统 提示 请求 数据 超过 系统 限制 表示 添加 超过 系统 设定 好友 数量 上限 系统 未能 正确 预期 错误信息 提供 清晰 错误 提示</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>该输入框未明确显示群名称的字符数限制，导致用户无法直观地知道他们已经输入了多少字符。</t>
+          <t>该软件在用户界面的设计中存在一个明显的用户体验问题。当用户尝试邀请好友加入群聊时，系统允许一次最多选择20个好友，但当用户试图选择超过这个数量的好友时，系统并不会立即给予反馈，而是在用户确认后才会告知不能选择多于20个好友。这种设计导致新用户在第一次使用时可能会浪费时间在选择好友上，因为他们可能不知道可以一次选择的最大数量限制。为了提高用户体验，建议在用户开始选择好友前就明确告知一次选择的最大数量，并在超过这个数量时禁止继续选择，这样可以防止用户白费功夫并节省他们的时间。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>用户界面 设计 明显 邀请 好友 加入 群聊 系统 允许 一次 选择 20 好友 试图 选择 超过 数量 好友 系统 不会 立即 给予 反馈 确认 告知 不能 选择 多于 20 好友 设计 新 第一次 浪费时间 选择 好友 知道 一次 选择 最大 数量 限制 提高 建议 选择 好友 前 明确 告知 一次 选择 最大 数量 超过 数量 禁止 继续 选择 防止 白费 功夫 节省 时间</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>输入字母时，不是存在该字母的提示并显示，而是把中文的也提示了出来；输入数字时，把所有的群组都显示了出来</t>
+          <t>该软件在用户尝试创建群组并添加好友时，存在一个关键性的问题。具体来说，当用户尝试添加的好友数量超过系统设定的限制时，软件并未在添加好友的过程中提供任何形式的提示或警告。相反，这个提示只在用户确认创建群组后才出现，而且这个提示的信息并不明确，无法为用户提供足够的信息来理解发生了什么。这可能会导致用户感到困惑，不知道他们的操作是否成功，或者他们是否需要采取进一步的行动。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>创建 群组 添加 好友 关键性 具体来说 添加 好友 数量 超过 系统 设定 限制 软件 并未 添加 好友 过程 提供 形式 提示 警告 相反 提示 确认 创建 群组 出现 提示 信息 明确 无法 提供 足够 信息 理解 发生 感到 困惑 知道 是否 成功 是否 采取 进一步 行动</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>输入数字、字母、中文、空格、符号查询群组时，输入数字、字母、空格不能查找显示对应的群组</t>
+          <t>群主选择加群时虽然系统默认一次只能拉入20人，但是在选择时数量却可以选择超过20人，如下图所示，确认旁边的按钮已经是“21”人了。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>群主 选择 加群 系统 默认 一次 只能 拉入 20 选择 数量 选择 超过 20 图 所示 确认 旁边 按钮 21</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>输入字符，不能正常输入</t>
+          <t>在用户界面中，当搜索并添加成员后，触控键盘没有正确收回。此外，候选成员的显示数量被限制为最多4个，这可能阻碍了用户的输入体验。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>用户界面 搜索 添加 成员 触控 键盘 没有 正确 收回 候选 成员 数量 限制 阻碍 输入</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>该软件在用户尝试输入邮箱地址时存在bug。具体来说，用户在申请过程中无法输入包含“@”符号的邮箱地址，这导致用户无法完成邮箱地址的填写。这可能是由于软件界面的某个部分未正确响应用户的输入或者与邮箱地址验证功能相关的代码存在问题。</t>
+          <t>添加群成员没有全选按钮。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>添加 群 成员 没有 全选 按钮</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>在意见反馈功能中，当用户尝试输入99个字符时，中间的字符被错误地显示为空格，导致输入内容的前半部分和后半部分之间出现了不连贯的空白。</t>
+          <t>该软件在创建群组时存在明显的用户体验问题。当用户选择超过20个成员时，系统只在完成群组创建后才提示有限制，且未明确说明具体的限制内容。这种设计导致用户在创建过程中可能感到困惑和挫败，因为他们不知道到底哪里出了问题或需要做什么修改。为了提高用户体验，建议在用户选择超过20人时即时提示超过上限的信息，并明确告知用户具体的限制是什么，以便他们可以及时调整。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>创建 群组 明显 选择 超过 20 成员 系统 完成 群组 创建 提示 限制 未 明确 说明 具体 限制 内容 设计 创建 过程 感到 困惑 挫败 知道 到底 出 做 修改 提高 建议 选择 超过 20 人时 即时 提示 超过 上限 信息 明确 告知 具体 限制 及时 调整</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>在软件的群聊名称输入区域，用户能够输入包含特殊字符的名称。这可能会导致软件处理这些名称时出现问题，从而影响其安全性和稳定性。例如，某些特殊字符可能被误解为代码或命令，导致不必要的操作或错误。此外，如果特殊字符过多或过于复杂，可能会增加存储和管理群聊名称的复杂性，从而降低软件的效率和可靠性。</t>
+          <t>该软件在用户尝试创建群聊时存在一个明显的bug。用户在选择21个联系人准备建群时，系统并未给出提示，告知用户一次最多只能添加20个联系人。当用户输入群组名称并准备完成建群操作时，系统却突然提示“您请求的数据超过系统限制”，这明显是一个误导用户的反馈，因为它没有在用户选择联系人时就明确告知限制。这样的用户体验显然是负面的，会给用户带来困惑和不满。特别是当用户在没有任何警告的情况下被告知无法完成操作，这种突如其来的挫败感可能会让用户感到被欺骗。为了提升用户体验，建议开发者在用户选择超过20个联系人时，立即给予反馈，告知用户已达到上限，并建议用户重新选择或分批添加联系人。这样可以避免用户在最后一刻遇到困扰，从而提高用户满意度。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>创建 群聊 明显 选择 21 联系人 准备 建群 系统 并未 给出 提示 告知 一次 只能 添加 20 联系人 输入 群组 名称 准备 完成 建群 系统 突然 提示 请求 数据 超过 系统 限制 明显 误导 反馈 没有 选择 联系人 明确 告知 限制 显然 负面 带来 困惑 不满 特别 没有 警告 情况 告知 无法 完成 突如其来 挫败 感 感到 欺骗 提升 建议 开发者 选择 超过 20 联系人 立即 给予 反馈 告知 达到 上限 建议 重新 选择 分批 添加 联系人 避免 最后 一刻 遇到 困扰 提高 满意度</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>用户注册时输入密码仅一次，由于密码输入是无法在屏幕上显示，用户极有可能输入与内心所想的不同的密码，如此一来，下次登录时就会遇到很大的问题</t>
+          <t>该软件界面显示群成员上限为20人，但用户可以通过勾选超过20人的选项来增加人数。这种设计导致用户在尝试添加更多成员时可能会感到困惑和挫败，因为它与实际的群成员上限不符，违反了直观的操作逻辑。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>界面显示 群 成员 上限 20 勾选 超过 20 选项 增加 人数 设计 添加 更 成员 感到 困惑 挫败 群 成员 上限 不符 违反 直观 逻辑</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1.创建群时名字不能超过64个字符</t>
+          <t>新建群-添加成员，一次添加用户超过20人时没有相应非法提示</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>新建 群 - 添加 成员 一次 添加 超过 20 人时 没有 相应 非法 提示</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>该软件在用户试图创建群组并一次性添加超过20个联系人时出现了系统限制错误。当用户点击“创建群组”后，程序进入选择联系人界面，但当尝试添加的成员数量超过20时，系统显示了一个提示信息，告知“请求的数据超过系统限制”。这可能表明软件在处理大量数据时存在性能瓶颈或资源分配问题。</t>
+          <t>在尝试添加成员到群聊时，当选择的人数超过20人后，系统并未及时给出人数超限的提示。用户需要等到输入群名称时才被告知人数超过了20人的上限限制。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>添加 成员 群聊 选择 人数 超过 20 人后 系统 并未 及时 给出 人数 超限 提示 输入 群 名称 时才 告知 人数 超过 20 上限 限制</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>该软件在用户试图创建群组并选择达到500人的群组成员时，出现了系统错误。当尝试添加超过系统限制的联系人数量时，界面会显示一个错误消息，提示“请求的数据超过系统限制”。这可能表明软件在处理大量数据或并发请求时存在性能问题，或者其后端服务和数据库配置不足以支持如此大量的操作。</t>
+          <t>前提条件:发起群聊后添加成员
+复现步骤:
+1.发起群聊，点击添加成员，一次可以添加超过20名成员
+2.在创建群组时提示 请求数据超过系统限制
+预期结果:在勾选超过20名成员后，确定按钮变为不可点击状态</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>前提条件 : 发起 群聊 添加 成员 
+ 复现 : 
+ . 发起 群聊 点击 添加 成员 一次 添加 超过 20 名 成员 
+ . 创建 群组 提示   请求 数据 超过 系统 限制 
+ 预期 : 勾选 超过 20 名 成员 确定 按钮 变为 不可 点击 状态</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>群名称有上限，但是输入时并不提示，能输入，但是永远只显示前63个字。</t>
+          <t>创建群组时，在勾选好友页面，当勾选的好友数抄错20时，点击确定按钮，仍可以跳转到群组设置页面，点击【确定】按钮才提示“数据超过限制”。
+建议：在勾选用户的时候，当勾选的用户数超过20时就提示勾选“”的用户超过限制，不必等到提交群信息时才提醒</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>创建 群组 勾选 好友 页面 当勾选 好友 数抄错 20 点击 确定 按钮 跳转 群组 设置 页面 点击 确定 按钮 提示 数据 超过 限制 
+ 建议 勾选 当勾选 用户数 超过 20 提示 勾选 超过 限制 不必 提交 群 信息 时才 提醒</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>发送信息有字数限制，但是系统在超过限定后不给以提示。</t>
+          <t>在执行新建群的第二步时，用户在选择联系人进行添加时遇到了问题。根据需求文档的规定，一次最多只能添加20个人。然而，在实际操作中，当尝试添加超过这个数量的人时，系统并没有给出任何超出人数的警告或提示。相反，直到用户完成所有操作并尝试创建群组时，系统才显示了一个提示，告知用户超出了人数限制。这种情况可能会对用户体验造成负面影响，因为它没有及时反馈给用户关于操作限制的信息，导致用户可能已经完成了一些不希望的操作，从而需要重新进行。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>执行 新建 群 第二步 选择 联系人 进行 添加 遇到 需求 文档 规定 一次 只能 添加 20 个人 实际操作 添加 超过 数量 人时 系统 没有 给出 超出 人数 警告 提示 相反 完成 创建 群组 系统 提示 告知 超出 人数 限制 情况 造成 负面影响 没有 及时 反馈 限制 信息 完成 希望 重新 进行</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>该应用程序在用户注册过程中存在一个关键功能缺陷。当用户尝试使用一个无效的电话号码进行注册时，系统不会提供任何错误消息或提示来指导用户输入正确的格式。相反，系统会持续要求用户输入，直到提供一个有效的电话号码为止，导致用户可能浪费大量时间在尝试和纠正错误的电话号码上。</t>
+          <t>在添加成员是一次只能添加20个成员。但是软件在哪个步骤的时候没有提示，当到了提示的时候，再返回修改麻烦。而且没有提示做多一次20 个成员，不知道要修改成几个。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>添加 成员 一次 只能 添加 20 成员 软件 没有 提示 当到 提示 返回 修改 麻烦 没有 提示 做 一次 20   成员 知道 修改 成 几个</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>这个bug描述的问题是：在尝试添加群组名称时，即使按照需求书的要求，群组名称不多于64个字符并且空格也被视为字符，当在群组名称中输入空格作为字符时，该空格并不能被成功添加到群组名称中。</t>
+          <t>该软件在成员管理功能中存在不一致的问题。根据软件设计，一次只能添加20个成员，但在实际查找成员时，系统允许选择多达30人。这种不匹配的操作可能导致用户混淆或误操作，影响软件的用户体验和效率。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>成员 管理 一致 软件设计 一次 只能 添加 20 成员 查找 成员 系统 允许 选择 多达 30 匹配 混淆 误操作 软件 效率</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>该问题描述了一个软件或应用程序的群名称输入功能存在边界值过大的问题。当用户尝试输入一个非常长的群名称时，系统可能无法正确处理或显示这个名称，导致输入失败或显示错误。这个问题可能会导致用户体验不佳，因为用户可能无法为群组设置一个合适的名称。</t>
+          <t>问题描述：在进行新建群组的过程中，当用户选择的联系人数量超过20人时，系统并没有立即给予用户反馈，告知其已超出20人的上限。直到用户尝试创建群组时，系统才提示“数据超出20”。这样的设计导致用户体验不佳，因为用户在添加了过多的联系人后才发现无法创建群组。为了提高用户体验，应该在用户选择的联系人数量达到或超过20人时，提前给予用户提示，告知其已经超出了上限。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>进行 新建 群组 过程 选择 联系人 数量 超过 20 人时 系统 没有 立即 给予 反馈 告知 超出 20 上限 创建 群组 系统 提示 数据 超出 20 设计 不佳 添加 联系人 发现 无法 创建 群组 提高 应该 选择 联系人 数量 达到 超过 20 人时 提前 给予 提示 告知 超出 上限</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>用户填写申请说明时，字符数量限制为255，有点多余</t>
+          <t>创建群聊，群成员人数达到上限，因限制了一次性最多添加的成员人数是20，如果我加入的人数是21，只有修改群名称之后，才提示我超出人数限制。建议：当我添加的人数超出范围时，就提示！</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>创建 群聊 群 成员 人数 达到 上限 限制 一次性 添加 成员 人数 20 加入 人数 21 修改 群 名称 之后 提示 超出 人数 限制 建议 添加 人数 超出范围 提示</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>该软件在设计上存在缺陷，导致用户在输入群聊申请条件时，系统并未对字符长度进行有效的限制。尽管提示信息表明最大长度为255个字符，但用户仍可以输入超过这个限制的字符。这可能会导致数据存储或处理的问题，影响软件的稳定性和用户体验。</t>
+          <t>添加成员限定20人，但可以选中20以上的用户，而在后续完成过程中显示超过限定人数警告。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>添加 成员 限定 20 选中 20 后续 完成 过程 超过 限定 人数 警告</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>在创建群的界面中，当用户使用换行符作为群名称或描述的一部分时，系统会将换行符自动替换为空格。这导致了保存后的群信息与原始输入的布局不一致。具体来说，如果用户在群名称或描述中使用了换行，保存后该部分内容会变为一行，而不是多行显示。这可能会给用户带来困扰，因为他们预期的是多行的布局效果。因此，建议对此功能进行优化，直接禁止用户在创建群时使用换行符，以确保输出内容的一致性和用户的使用体验。</t>
+          <t>在创建群的过程中，用户在第一次选择群成员时没有收到任何关于只能选择20人的提示。尽管系统允许用户继续选择更多的群成员，但在尝试完成群组创建时，系统才在页面下方显示错误信息，提示数据超出限制。这可能导致用户混淆，不知道何时应该停止添加成员，以及为什么会在最后阶段出现错误。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>创建 群 过程 第一次 选择 群 成员 没有 收到 只能 选择 20 提示 系统 允许 继续 选择 更 群 成员 完成 群组 创建 系统 页面 下方 错误信息 提示 数据 超出 限制 混淆 知道 应该 停止 添加 成员 最后 阶段 出现 错误</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>这个bug是在群聊名称输入时，用户可以使用回车键来破坏布局。具体表现为，当用户在输入框中按下回车键时，会导致输入框内的布局被重置，且可以连续不断地使用回车键来重复此效果。这种设计显然是不符合常规的输入习惯和预期的用户交互体验。</t>
+          <t>该问题描述了一个软件界面的bug，具体如下：当用户在创建群组时，如果勾选的好友人数超过了20人，系统应该阻止用户进入下一步操作。但在实际测试中，即使勾选的好友人数超过限制，用户仍然可以继续进行到填写群名称和设置加群限制的步骤。只有在用户完成这些操作并点击确认后，系统才会显示“请求数据超过限制”的错误提示。这显然违背了正常的操作流程和预期的用户交互，可能导致用户混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>软件 界面 具体 创建 群组 勾选 好友 人数 超过 20 系统 应该 阻止 进入 一步 勾选 好友 人数 超过 限制 仍然 继续 进行 填写 群 名称 设置 加群 限制 完成 点击 确认 系统 请求 数据 超过 限制 错误 提示 显然 违背 正常 预期 交互 混淆 不便</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>在创建群聊的过程中，当用户试图填写群名时，系统默认的输入法限制了用户的输入。具体来说，用户只能通过第三方输入法来输入除了系统默认提供的那些字符之外的其他个性化字符。这导致用户无法直接在系统提供的输入法中输入他们想要的字符或符号来命名他们的群聊，从而影响了用户体验。</t>
+          <t>该问题描述了一个软件界面的bug。在创建群聊的过程中，当用户选择超过20个好友时，确认按钮并未被禁用或置灰，导致用户可以继续操作。然而，当用户填写完群名称后，系统并没有立即显示“数据超过系统限制”的提示信息。相反，直到用户填写了群名称之后，系统才显示此警告。这可能导致用户在不知情的情况下超过了系统的群组数量限制。此外，如果用户没有填写任何群名称，系统错误地显示了“群名不能为空”的错误信息。这个bug可能会导致用户混淆何时以及如何接收到系统的限制提示，增加了用户的困惑和操作上的困扰。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>软件 界面 创建 群聊 过程 选择 超过 20 好友 确认 按钮 并未 禁用 或置 灰 继续 填写 完群 名称 系统 没有 立即 数据 超过 系统 限制 提示信息 相反 填写 群 名称 之后 系统 警告 不知情 情况 超过 系统 群组 数量 限制 没有 填写 群 名称 系统 错误 群名 不能 为空 错误信息 混淆 接收 系统 限制 提示 增加 困惑 困扰</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>该软件在创建群组名称时存在显示问题。当用户尝试输入超过64个字符的名称时，后续的字符无法正常显示在对话框中。这意味着用户可能只能看到前64个字符，而后面的字符被截断了，导致无法完整地输入群组名称。</t>
+          <t>执行3之后才提示超过人数限制。导致用户填写的信息作废。建议在执行2之后就提示。可避免不必要的操作。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>执行 之后 提示 超过 人数 限制 填写 信息 作废 建议 执行 之后 提示 避免 不必要</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>创建群组人数超过20人后，系统提示信息不够明确。当前提示为“你请求的数据超过系统限制”，应改为“您所邀请的人数超过20人，已经超过限制”以提供更明确的信息指引。</t>
+          <t>在发起群聊并尝试添加成员后，当输入关键字搜索并选择成员时，系统并未提供最多只能选择二十个成员的提示。即使已经选择了超过二十个成员，用户仍然可以继续选择其他成员。这种设计导致用户体验不佳，因为在达到某个数量后，应该有一个明确的限制或提示来指导用户操作。</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>发起 群聊 添加 成员 输入 关键字 搜索 选择 成员 系统 并未 提供 只能 选择 二十个 成员 提示 选择 超过 二十个 成员 仍然 继续 选择 成员 设计 不佳 达到 数量 应该 明确 限制 提示 指导</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>该软件在尝试添加超过20个群成员时，系统提示为“您请求的数据超过系统限制”。这个提示不够明确，因为用户可能不清楚是添加的单个用户数量超过了限制，还是总的用户数量。建议软件开发商对提示进行修改，提供更具体的错误信息，以便用户更好地理解问题所在。</t>
+          <t>这个软件的界面在用户尝试创建群组时，当输入超过20个联系人后，系统并没有明确地指出上限是20人，而是简单地提示“请求的数据超过系统限制”。这可能会导致用户误解系统的限制，并可能感到困惑或失望。这种设计可能会影响用户体验，因为它没有提供足够的信息来指导用户如何正确地操作。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>软件 界面 创建 群组 输入 超过 20 联系人 系统 没有 明确 指出 上限 20 简单 提示 请求 数据 超过 系统 限制 误解 系统 限制 感到 困惑 失望 设计 没有 提供 足够 信息 指导 正确</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>问题描述：在尝试创建新群组时，用户输入的群名称没有明确提示字符数的限制，只有在超过64个字符时才出现提示。这可能会导致用户误解群名称的长度限制，并可能导致无法成功创建群组。</t>
+          <t>该软件在执行群组创建过程中存在一个关键性的错误。当用户尝试将群组人数设置为超过20人时，系统未能及时阻止这一操作，导致用户可以继续添加成员，即使已经超出了允许的最大人数。直到用户试图完成创建过程并点击“完成”时，系统才给出错误提示。这表明在用户界面的交互设计上存在问题，没有为用户提供适当的反馈或警告，以告知他们所进行的操作可能会导致错误或问题。此bug可能会对用户体验造成负面影响，并可能导致数据存储和处理方面的潜在问题。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>执行 群组 创建 过程 关键性 错误 群组 人数 设置 超过 20 人时 系统 未能 及时 阻止 这一 继续 添加 成员 超出 允许 最大 人数 试图 完成 创建 过程 点击 完成 系统 给出 错误 提示 表明 用户界面 交互 设计 没有 提供 适当 反馈 警告 告知 进行 错误 造成 负面影响 数据 存储 处理 方面 潜在</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>根据您提供的信息和图片，这个软件界面在尝试创建一个群组时遇到了问题。用户打开朋友窗口，并按照步骤试图创建一个新的群聊。在添加22位好友到新群聊后，用户尝试设置群名称，但系统提示“您请求的数据超过系统限制”。这表示当用户尝试添加超过系统设定的好友数量上限时，系统未能正确显示预期的错误信息，而是提供了一个不清晰的错误提示。</t>
-        </is>
+          <t>在建立群聊的过程中，当尝试添加多个成员时，用户必须单独选择每个成员，而不能一次性选择所有要添加的成员。这种设计限制了用户的操作效率，使得添加群成员的过程变得繁琐和耗时，对用户体验产生了负面影响。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>建立 群聊 过程 添加 多个 成员 必须 单独 选择 每个 成员 不能 一次性 选择 添加 成员 设计 限制 效率 添加 群 成员 过程 变得 繁琐 耗时 产生 负面影响</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B418"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>人时</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>达到</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>该软件在创建群聊时，当用户尝试输入的群名称字符数达到最大限制时，并没有给出任何提示信息告知用户已达到最大字数限制。这可能会导致用户继续输入，直到他们尝试创建群聊时才发现名称已被截断或无法创建。</t>
-        </is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>在创建群组的过程中，用户在第一步勾选好友后，进入到第二步填写群名称时，界面并未提供字符数限制的提示。然而，当用户尝试输入的字符数达到或超过系统设定的最大限制时，界面会阻止用户继续输入，并且没有给出任何关于字符数超限的用户提示。这可能导致用户无法完成群组名称的设置，从而影响整个创建过程。</t>
-        </is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>该软件在聊天时，当用户在文本框内输入数字并达到上限后，尾数部分被高亮显示。</t>
-        </is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>当用户试图在一次添加21个联系人时创建群组，系统在用户输入群名称并点击确认后出现错误。这导致用户必须返回到之前的界面重新输入信息，这种反复的操作给用户带来了不便。</t>
-        </is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>该软件在处理群信息时存在一个bug。当用户尝试创建一个新群组并设置其名称时，软件不允许使用大的表情符号、图片或字符数超过64个字符的输入。此外，如果群名以空格开头，则不会显示该空格。然而，这个规则似乎并没有完全按照预期工作，导致在某些情况下，群名称可能无法正确显示。</t>
-        </is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>问题描述：在发起群聊时，当用户尝试设置群名称时，系统并没有提供明确的字符限制提示。这导致用户可能不知道他们输入的群名称是否超出了允许的最大字符数，从而影响了用户的使用体验。</t>
-        </is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>在添加群成员的界面中，当用户尝试使用搜索功能并输入群成员的名称时，发现一旦输入了错误的或部分的用户名，系统并没有提供任何删除或修改字符的功能。相反，如果用户想要删除已输入的部分名称，他们只能点击“×”按钮来清空整个输入框的内容。这可能会导致用户在尝试添加新成员时遇到困难，因为他们不能仅删除输入错误的一部分，而必须重新开始输入。</t>
-        </is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>该bug描述如下：
-在用户尝试创建群组并为其命名时，当前系统并没有提供字数提示的最大值和当前所输入的字数。这可能导致用户不知道他们已经输入了多少字符，从而无法确保群组名称符合平台的要求或限制。</t>
-        </is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>该bug描述为：在创建群组的过程中，当邀请人数超过20人并且群名称字符数超过64个限制时，系统给出的提示信息不明确。用户无法准确判断是人数的限制还是群名称长度的限制导致的操作失败或警告。</t>
-        </is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>问题描述：
-在创建群组名称的过程中，用户被限制不能输入超过一定字符长度，但在成功创建群组后，用户可以无限制地输入群组名称。这种不一致的处理方式可能会导致用户困惑和操作上的不一致感。</t>
-        </is>
+          <t>一次性</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>该软件在用户尝试输入群名称时，没有提供适当的提示来通知用户字符数的上限。当用户的输入超过64个字符时，界面并没有给出任何反馈或警告，这导致用户无法得知他们已经达到了输入限制。为了提高用户体验和防止潜在的错误，应该在此处添加一个弹窗或警告，以告知用户字符数的上限。</t>
-        </is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>该软件在创建群组时存在明显的用户体验问题。当用户选择超过20个成员时，系统只在完成群组创建后才提示有限制，且未明确说明具体的限制内容。这种设计导致用户在创建过程中可能感到困惑和挫败，因为他们不知道到底哪里出了问题或需要做什么修改。为了提高用户体验，建议在用户选择超过20人时即时提示超过上限的信息，并明确告知用户具体的限制是什么，以便他们可以及时调整。</t>
-        </is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>在软件的搜索功能中，当用户尝试通过手机号或昵称添加好友时，存在一个明显的bug。当用户输入手机号的前三位时，系统会展示多个推荐的好友，这是不正确的，因为此时用户可能只是随机输入了前三个数字，并没有进行实际的搜索。而当用户输入完整的7位手机号时，系统提示“无相关结果”，但此时用户可能只是输入了前三位。这说明系统对输入的处理存在问题，不能准确识别用户的输入意图和状态。</t>
-        </is>
+          <t>最大</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>进行群聊时，若对方正在输入信息，在群聊页面最上面没有“对方正在输入....”的提示，输入完毕大约10s，即可收到对方消息。</t>
-        </is>
+          <t>时才</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>该软件在用户尝试创建群聊时存在一个明显的bug。用户在选择21个联系人准备建群时，系统并未给出提示，告知用户一次最多只能添加20个联系人。当用户输入群组名称并准备完成建群操作时，系统却突然提示“您请求的数据超过系统限制”，这明显是一个误导用户的反馈，因为它没有在用户选择联系人时就明确告知限制。这样的用户体验显然是负面的，会给用户带来困惑和不满。特别是当用户在没有任何警告的情况下被告知无法完成操作，这种突如其来的挫败感可能会让用户感到被欺骗。为了提升用户体验，建议开发者在用户选择超过20个联系人时，立即给予反馈，告知用户已达到上限，并建议用户重新选择或分批添加联系人。这样可以避免用户在最后一刻遇到困扰，从而提高用户满意度。</t>
-        </is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>在尝试添加成员到群聊时，当选择的人数超过20人后，系统并未及时给出人数超限的提示。用户需要等到输入群名称时才被告知人数超过了20人的上限限制。</t>
-        </is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>群名称过长时,没有超长提示.</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>创建群组时，在勾选好友页面，当勾选的好友数抄错20时，点击确定按钮，仍可以跳转到群组设置页面，点击【确定】按钮才提示“数据超过限制”。
-建议：在勾选用户的时候，当勾选的用户数超过20时就提示勾选“”的用户超过限制，不必等到提交群信息时才提醒</t>
-        </is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>创建群聊时，填写群聊名称。限制长度为64个字符，但是在用户第一次填写群聊名称时没有指明，而仅仅在创建群聊之后，修改群名称才出现明确的字样要求，如图</t>
-        </is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>问题描述：在创建群聊时，用户试图填写群信息。根据系统要求，群的名称应不超过64个字符。然而，当用户输入名称时，系统并未提供任何关于是否超出有效字符数的提示信息。这可能导致用户在不知情的情况下创建了名称超过限制的群聊，从而引发后续的问题或不便。</t>
-        </is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>该软件的字符输入限制设置过小，导致用户在尝试一次性输入长字符串时，系统无法正确处理和显示所有输入的字符。这可能会影响用户的输入体验，造成信息输入错误或丢失。</t>
-        </is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>在执行新建群的第二步时，用户在选择联系人进行添加时遇到了问题。根据需求文档的规定，一次最多只能添加20个人。然而，在实际操作中，当尝试添加超过这个数量的人时，系统并没有给出任何超出人数的警告或提示。相反，直到用户完成所有操作并尝试创建群组时，系统才显示了一个提示，告知用户超出了人数限制。这种情况可能会对用户体验造成负面影响，因为它没有及时反馈给用户关于操作限制的信息，导致用户可能已经完成了一些不希望的操作，从而需要重新进行。</t>
-        </is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>在输入界面中，当尝试在背景虚化的“群名称”文字下方输入字符时，输入的内容会被立即删除，并未显示任何字符。此外，该界面并没有提供关于群名称长度的明确提示，如“最多不得超过64个字符”。这可能导致用户无法准确知道他们输入的群名称的长度限制，从而可能违反了某些规则或期望。</t>
-        </is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>在查好群的输入框中输入“～^O^”时，下面没有任何提示消息。</t>
-        </is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>在软件的群组加入验证界面中，当用户尝试输入超过255个字符的验证信息时，系统并没有阻止用户继续输入。尽管系统提示超出长度限制，但用户仍然可以持续输入，直至达到或超过这个上限。这可能会导致验证过程出现问题或者数据溢出。建议对该功能进行优化，确保当用户输入超过255个字符时，界面不再响应新的输入操作，以保护系统的正常运行和数据的安全性。</t>
-        </is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>在查找群的界面中，用户输入字段允许无限字符输入，导致无法正确显示或加载结果。与此相反，当尝试创建新的群时，系统限制了字符数只能输入64个字符，这可能导致创建新群的功能受限。这两个问题都与输入和输出的限制有关，但它们在查找群功能和创建群功能上表现出不同的错误行为。</t>
-        </is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>问题描述：当用户尝试创建一个群组并为其命名时，尽管名称超过了64个字符的限制，应用程序并没有给出任何提示或警告。</t>
-        </is>
+          <t>名</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>该软件在规定的字数限制下，只能输入225个字，这远低于预期的字数需求。</t>
-        </is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>在尝试申请加入群时，用户界面没有提供关于输入超过255个字的动态提示。虽然用户可以继续输入申请理由，但是系统并没有给出任何关于字符限制的警告或提示，这与预期结果不符，即应该有一个动态窗口来告知用户他们的输入已经超过了允许的最大字符数。</t>
-        </is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>问题描述：在进行新建群组的过程中，当用户选择的联系人数量超过20人时，系统并没有立即给予用户反馈，告知其已超出20人的上限。直到用户尝试创建群组时，系统才提示“数据超出20”。这样的设计导致用户体验不佳，因为用户在添加了过多的联系人后才发现无法创建群组。为了提高用户体验，应该在用户选择的联系人数量达到或超过20人时，提前给予用户提示，告知其已经超出了上限。</t>
-        </is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>10.创建群名以及申请加入群填写申请理由的时候，超过限制字数还可以继续输入，虽然最终创建的结果是在规定字数以内，但是软甲提醒的不明显。</t>
-        </is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>当尝试在群名称字段中输入超过64个字符时，系统并未提供任何错误提示或限制信息。用户在超出字符限制后仍可继续输入，这可能导致群名称无法正确保存，且可能对用户的使用体验造成混淆和不便。</t>
-        </is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>该问题描述了一个软件界面的bug，具体如下：当用户在创建群组时，如果勾选的好友人数超过了20人，系统应该阻止用户进入下一步操作。但在实际测试中，即使勾选的好友人数超过限制，用户仍然可以继续进行到填写群名称和设置加群限制的步骤。只有在用户完成这些操作并点击确认后，系统才会显示“请求数据超过限制”的错误提示。这显然违背了正常的操作流程和预期的用户交互，可能导致用户混淆和不便。</t>
-        </is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>该问题描述了一个软件界面的bug。在创建群聊的过程中，当用户选择超过20个好友时，确认按钮并未被禁用或置灰，导致用户可以继续操作。然而，当用户填写完群名称后，系统并没有立即显示“数据超过系统限制”的提示信息。相反，直到用户填写了群名称之后，系统才显示此警告。这可能导致用户在不知情的情况下超过了系统的群组数量限制。此外，如果用户没有填写任何群名称，系统错误地显示了“群名不能为空”的错误信息。这个bug可能会导致用户混淆何时以及如何接收到系统的限制提示，增加了用户的困惑和操作上的困扰。</t>
-        </is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>该软件界面在输入申请理由时存在显示问题。用户在尝试输入字符时，只能看到一行的输入内容，而无法完全显示所有已输入的字符。这种设计限制了用户的输入体验，使得在编写较长的理由或信息时变得困难和不便。</t>
-        </is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>执行3之后才提示超过人数限制。导致用户填写的信息作废。建议在执行2之后就提示。可避免不必要的操作。</t>
-        </is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>该界面在用户注册时存在一个输入限制的问题。具体来说，当用户尝试在手机号码或邮箱输入框中输入英文字符时，系统并未允许这一操作。这可能是因为软件的测试环境（可能是手机）不支持英文字符输入，或者是程序本身设计时就仅支持数字输入。这个问题可能会导致用户体验下降，因为它限制了用户的输入选项，可能会造成不便。</t>
-        </is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>该软件界面显示的群名称设置功能中，没有明确的提示表明字数限制的存在。用户在尝试设置一个较长的群名称时，可能会发现名称超出预期长度而无法成功保存，导致用户体验不佳。</t>
-        </is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>该软件界面显示地址定位功能失效，用户无法通过输入手机号码来获取其具体位置信息。</t>
-        </is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>这个软件的界面在用户尝试创建群组时，当输入超过20个联系人后，系统并没有明确地指出上限是20人，而是简单地提示“请求的数据超过系统限制”。这可能会导致用户误解系统的限制，并可能感到困惑或失望。这种设计可能会影响用户体验，因为它没有提供足够的信息来指导用户如何正确地操作。</t>
-        </is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>问题描述：在创建群组过程中，用户输入的群名称没有明确的提示或限制，导致用户可能错误地认为群名称可以超过64个字符的限制。</t>
-        </is>
+          <t>括号</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>用户数量</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>当勾选</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>挫败</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>位</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>建群</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>避免</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>实际操作</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>灰</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>准备</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>超限</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>关键性</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>阶段</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>个群</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>确切</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>感</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>提交</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>指导</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>数值</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>指示</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>被加</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>二十个</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>任务</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>添二</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>指出</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>人后</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>勾选栏</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>做</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>变更</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>置</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>限定</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>底部</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>意识</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>群才</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>超载</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>阻碍</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>图</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>收回</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>所示</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>旁边</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>候选</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>触控</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>键盘</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>全选</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>繁琐</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>表示</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>多于</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>浪费时间</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>禁止</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>防止</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>白费</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>功夫</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>节省</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>形式</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>采取</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>行动</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>到底</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>即时</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>提前</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>超出范围</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>停止</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>违背</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>禁用</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>或置</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>完群</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>作废</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>简单</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>失望</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>多达</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>调整</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>负面</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>突如其来</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>欺骗</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>提升</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>开发者</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>分批</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>一刻</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>非法</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>复现</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>数抄错</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>用户数</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>不必</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>第二步</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>文档</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>当到</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>成</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>受限制</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>群里</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>以此</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>加剧</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>上述</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>运作</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>稍后</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>重置</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>不合理</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>团队</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>稳定性</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>最大值</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>大于</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>闪退</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>面板</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>勾选框</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>真的</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>不断</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>猜测</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>找出</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>告诉</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>满足用户</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>超标</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>情况严重</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>对系统</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>弹窗</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>再要</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>前面</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>会弹</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>成员数</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>导致系统</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>无意</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>瓶颈</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>资源分配</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>并发</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>其后</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>端</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>服务</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>数据库</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>不足以</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>说</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>bug</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>弹</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>改为</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>指引</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>单个</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>总</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>开发商</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>更好</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>问题所在</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>发出</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>产生误解</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>程序</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>数</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>较多群</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>以下</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>所选</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>手机号</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>根据上述</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>度</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>细节</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>具体位置</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>欲</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>最多</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>仅弹</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>耗时</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
